--- a/Data/Globe_Valve/pitch000yaw015/Summary_pitch000yaw015.xlsx
+++ b/Data/Globe_Valve/pitch000yaw015/Summary_pitch000yaw015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\Globe_Valve\pitch000yaw015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66EDD29-5D76-486C-B632-0DBD96E5A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC08301-DA11-4705-9FF6-C77BC858397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E722222-A6EB-4181-BA6F-53C1ABAE2258}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F92E77-243F-4445-8EA7-C19B55B13596}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
